--- a/config_3.9/fish_3d_yutu_random_5.xlsx
+++ b/config_3.9/fish_3d_yutu_random_5.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="114">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -436,18 +436,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常规活动鱼2.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185,186,187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼</t>
   </si>
   <si>
     <t>161,162,163,164,165,166,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常规活动鱼2.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>161,162,163,164,165,166,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -456,31 +467,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常规活动鱼2.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼boss2.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>常规活动鱼boss</t>
   </si>
   <si>
     <t>167,168,169,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>170,171,172,173,174,175,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>170,171,172,173,174,175,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>179,180,181,182,183,184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>185,186,187</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,7 +549,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,19 +564,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,7 +600,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -659,9 +637,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -671,23 +646,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1245,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D20:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1256,8 +1224,8 @@
     <col min="6" max="6" width="64.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.25" customWidth="1"/>
     <col min="8" max="8" width="41.25" style="11" customWidth="1"/>
-    <col min="9" max="9" width="22.375" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.375" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1285,10 +1253,10 @@
       <c r="H1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="21" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1311,8 +1279,8 @@
       <c r="F2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
@@ -1333,8 +1301,8 @@
       <c r="F3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
@@ -1355,8 +1323,8 @@
       <c r="F4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
@@ -1438,8 +1406,8 @@
       <c r="F8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
@@ -1481,8 +1449,8 @@
       <c r="F10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
@@ -1549,8 +1517,8 @@
       <c r="F13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
@@ -1571,8 +1539,8 @@
       <c r="F14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
@@ -1593,8 +1561,8 @@
       <c r="F15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
@@ -1603,7 +1571,7 @@
       <c r="B16" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D16" s="11">
@@ -1623,7 +1591,7 @@
       <c r="B17" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>68</v>
       </c>
       <c r="D17" s="11">
@@ -1640,439 +1608,419 @@
       <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>104</v>
+      <c r="B18" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="22">
+        <v>109</v>
+      </c>
+      <c r="D18" s="24">
         <v>200</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="24">
         <v>300</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="26">
-        <v>1614643200</v>
+        <v>1615248000</v>
       </c>
       <c r="J18" s="26">
-        <v>1615219199</v>
+        <v>1615823999</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>106</v>
+      <c r="B19" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="22">
+        <v>110</v>
+      </c>
+      <c r="D19" s="24">
         <v>200</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="24">
         <v>300</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="26">
-        <v>1614643200</v>
+        <v>1615248000</v>
       </c>
       <c r="J19" s="26">
-        <v>1615219199</v>
+        <v>1615823999</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>106</v>
+      <c r="B20" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="22">
+        <v>111</v>
+      </c>
+      <c r="D20" s="24">
         <v>200</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="24">
         <v>300</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="26">
-        <v>1614643200</v>
+        <v>1615248000</v>
       </c>
       <c r="J20" s="26">
-        <v>1615219199</v>
+        <v>1615823999</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>109</v>
+      <c r="B21" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="22">
+        <v>111</v>
+      </c>
+      <c r="D21" s="24">
         <v>200</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="24">
         <v>300</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="26">
-        <v>1614643200</v>
+        <v>1615248000</v>
       </c>
       <c r="J21" s="26">
-        <v>1615219199</v>
+        <v>1615823999</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>110</v>
+      <c r="B22" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="22">
+        <v>113</v>
+      </c>
+      <c r="D22" s="24">
         <v>3000</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="24">
         <v>6000</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="26">
-        <v>1614643200</v>
+        <v>1615248000</v>
       </c>
       <c r="J22" s="26">
-        <v>1615219199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
+        <v>1615823999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="22">
         <v>22</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="23">
+      <c r="C23" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="22">
         <v>200</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>300</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="16">
+      <c r="I23" s="20">
         <v>1613433600</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="20">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
+    <row r="24" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="22">
         <v>23</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="23">
+      <c r="C24" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="22">
         <v>200</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>300</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="16">
+      <c r="I24" s="20">
         <v>1613433600</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="20">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
+    <row r="25" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="22">
         <v>24</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="22">
         <v>200</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="22">
         <v>300</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="16">
+      <c r="I25" s="20">
         <v>1613433600</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="20">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
+    <row r="26" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="22">
         <v>25</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" s="23">
+      <c r="C26" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="22">
         <v>200</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="22">
         <v>300</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="16">
+      <c r="I26" s="20">
         <v>1613433600</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="20">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
+    <row r="27" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="22">
         <v>26</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="22">
         <v>3000</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="22">
         <v>6000</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="16">
+      <c r="I27" s="20">
         <v>1613433600</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J27" s="20">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
+    <row r="28" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="22">
         <v>27</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="24">
+      <c r="C28" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="22">
         <v>200</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="22">
         <v>300</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="29">
+      <c r="I28" s="20">
         <v>1614038400</v>
       </c>
-      <c r="J28" s="29">
+      <c r="J28" s="20">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
+    <row r="29" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="22">
         <v>28</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="24">
+      <c r="C29" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="22">
         <v>200</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="22">
         <v>300</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="29">
+      <c r="I29" s="20">
         <v>1614038400</v>
       </c>
-      <c r="J29" s="29">
+      <c r="J29" s="20">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11">
+    <row r="30" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="22">
         <v>29</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="24">
+      <c r="C30" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="22">
         <v>200</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="22">
         <v>300</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="29">
+      <c r="I30" s="20">
         <v>1614038400</v>
       </c>
-      <c r="J30" s="29">
+      <c r="J30" s="20">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11">
+    <row r="31" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="22">
         <v>30</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="24">
+      <c r="C31" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="22">
         <v>200</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="22">
         <v>300</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="29">
+      <c r="I31" s="20">
         <v>1614038400</v>
       </c>
-      <c r="J31" s="29">
+      <c r="J31" s="20">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11">
+    <row r="32" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="22">
         <v>31</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="24">
+      <c r="C32" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="22">
         <v>3000</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="22">
         <v>6000</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="29">
+      <c r="I32" s="20">
         <v>1614038400</v>
       </c>
-      <c r="J32" s="29">
+      <c r="J32" s="20">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="33" spans="3:10" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C33" s="19"/>
-      <c r="F33" s="32"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-    </row>
-    <row r="34" spans="3:10" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C34" s="19"/>
-      <c r="F34" s="32"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-    </row>
-    <row r="35" spans="3:10" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C35" s="19"/>
-      <c r="F35" s="32"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
+    <row r="33" spans="3:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C33" s="18"/>
+      <c r="F33" s="23"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="3:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C34" s="18"/>
+      <c r="F34" s="23"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="3:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C35" s="18"/>
+      <c r="F35" s="23"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2529,7 +2477,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="21"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -2539,7 +2487,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="21"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -2549,7 +2497,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="21"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -2559,7 +2507,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="21"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -2810,7 +2758,7 @@
       <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="15" t="s">
         <v>93</v>
       </c>
@@ -2825,7 +2773,7 @@
       <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="15" t="s">
         <v>93</v>
       </c>
@@ -2840,7 +2788,7 @@
       <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="15" t="s">
         <v>98</v>
       </c>
@@ -2855,7 +2803,7 @@
       <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="15" t="s">
         <v>101</v>
       </c>
@@ -2868,28 +2816,28 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
-      <c r="B7" s="17"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
-      <c r="B8" s="17"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
-      <c r="B10" s="19"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>

--- a/config_3.9/fish_3d_yutu_random_5.xlsx
+++ b/config_3.9/fish_3d_yutu_random_5.xlsx
@@ -1214,7 +1214,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D20:F21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1730,7 +1730,7 @@
         <v>3000</v>
       </c>
       <c r="E22" s="24">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>48</v>
@@ -1862,7 +1862,7 @@
         <v>3000</v>
       </c>
       <c r="E27" s="22">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>48</v>
@@ -1992,7 +1992,7 @@
         <v>3000</v>
       </c>
       <c r="E32" s="22">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>48</v>
